--- a/us/readme/09272017-网站字号规范对照表格（第二版）修订版.xlsx
+++ b/us/readme/09272017-网站字号规范对照表格（第二版）修订版.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="155">
   <si>
     <t>1920px</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1219,7 +1219,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>.mTitle50：</t>
+      <t>.mTitle22：</t>
     </r>
     <r>
       <rPr>
@@ -1230,7 +1230,48 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>50px/6.52vw</t>
+      <t>22px/2.87vw</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>33px</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>29px</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>27px/2.08vw</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>34px/3.4vw</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.mTitle46：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>46px/6.00vw</t>
     </r>
     <r>
       <rPr>
@@ -1242,32 +1283,6 @@
         <scheme val="minor"/>
       </rPr>
       <t/>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="0" tint="-4.9989318521683403E-2"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.mTitle22：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0" tint="-4.9989318521683403E-2"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>22px/2.87vw</t>
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1276,7 +1291,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1400,6 +1415,19 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -1433,7 +1461,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1456,6 +1484,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1471,19 +1512,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1791,10 +1829,10 @@
   <dimension ref="A1:R42"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30:I30"/>
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="19.125" customWidth="1"/>
     <col min="2" max="2" width="16.375" style="1" customWidth="1"/>
@@ -1807,18 +1845,18 @@
     <col min="9" max="9" width="72.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="96.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B1" s="8" t="s">
+    <row r="1" spans="1:18" ht="96.75" customHeight="1">
+      <c r="B1" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-    </row>
-    <row r="2" spans="1:18" s="3" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+    </row>
+    <row r="2" spans="1:18" s="3" customFormat="1" ht="28.5" customHeight="1">
       <c r="A2" s="3" t="s">
         <v>34</v>
       </c>
@@ -1847,19 +1885,19 @@
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:18" s="2" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="11" t="s">
+    <row r="3" spans="1:18" s="2" customFormat="1" ht="26.25" customHeight="1">
+      <c r="A3" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-    </row>
-    <row r="4" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+    </row>
+    <row r="4" spans="1:18" ht="20.100000000000001" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>91</v>
       </c>
@@ -1895,7 +1933,7 @@
       <c r="Q4" s="1"/>
       <c r="R4" s="1"/>
     </row>
-    <row r="5" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:18" ht="20.100000000000001" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>90</v>
       </c>
@@ -1931,7 +1969,7 @@
       <c r="Q5" s="1"/>
       <c r="R5" s="1"/>
     </row>
-    <row r="6" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:18" ht="20.100000000000001" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>89</v>
       </c>
@@ -1967,7 +2005,7 @@
       <c r="Q6" s="1"/>
       <c r="R6" s="1"/>
     </row>
-    <row r="7" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:18" ht="20.100000000000001" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>96</v>
       </c>
@@ -2005,7 +2043,7 @@
       <c r="Q7" s="1"/>
       <c r="R7" s="1"/>
     </row>
-    <row r="8" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:18" ht="20.100000000000001" customHeight="1">
       <c r="A8" s="1" t="s">
         <v>36</v>
       </c>
@@ -2041,7 +2079,7 @@
       <c r="Q8" s="1"/>
       <c r="R8" s="1"/>
     </row>
-    <row r="9" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:18" ht="20.100000000000001" customHeight="1">
       <c r="A9" s="1" t="s">
         <v>37</v>
       </c>
@@ -2077,7 +2115,7 @@
       <c r="Q9" s="1"/>
       <c r="R9" s="1"/>
     </row>
-    <row r="10" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:18" ht="20.100000000000001" customHeight="1">
       <c r="A10" s="1" t="s">
         <v>38</v>
       </c>
@@ -2113,7 +2151,7 @@
       <c r="Q10" s="1"/>
       <c r="R10" s="1"/>
     </row>
-    <row r="11" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:18" ht="20.100000000000001" customHeight="1">
       <c r="A11" s="1" t="s">
         <v>39</v>
       </c>
@@ -2151,7 +2189,7 @@
       <c r="Q11" s="1"/>
       <c r="R11" s="1"/>
     </row>
-    <row r="12" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:18" ht="20.100000000000001" customHeight="1">
       <c r="A12" s="1" t="s">
         <v>40</v>
       </c>
@@ -2189,7 +2227,7 @@
       <c r="Q12" s="1"/>
       <c r="R12" s="1"/>
     </row>
-    <row r="13" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:18" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="1" t="s">
         <v>40</v>
       </c>
@@ -2227,19 +2265,19 @@
       <c r="Q13" s="1"/>
       <c r="R13" s="1"/>
     </row>
-    <row r="14" spans="1:18" s="2" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="11" t="s">
+    <row r="14" spans="1:18" s="2" customFormat="1" ht="26.25" customHeight="1">
+      <c r="A14" s="16" t="s">
         <v>124</v>
       </c>
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11"/>
-    </row>
-    <row r="15" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B14" s="16"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
+    </row>
+    <row r="15" spans="1:18" ht="20.100000000000001" customHeight="1">
       <c r="A15" s="1" t="s">
         <v>42</v>
       </c>
@@ -2277,7 +2315,7 @@
       <c r="Q15" s="1"/>
       <c r="R15" s="1"/>
     </row>
-    <row r="16" spans="1:18" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:18" ht="20.25" customHeight="1">
       <c r="A16" s="1" t="s">
         <v>43</v>
       </c>
@@ -2315,7 +2353,7 @@
       <c r="Q16" s="1"/>
       <c r="R16" s="1"/>
     </row>
-    <row r="17" spans="1:18" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:18" ht="20.25" customHeight="1">
       <c r="A17" s="1" t="s">
         <v>113</v>
       </c>
@@ -2353,44 +2391,44 @@
       <c r="Q17" s="1"/>
       <c r="R17" s="1"/>
     </row>
-    <row r="18" spans="1:18" s="2" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="11" t="s">
+    <row r="18" spans="1:18" s="2" customFormat="1" ht="26.25" customHeight="1">
+      <c r="A18" s="16" t="s">
         <v>125</v>
       </c>
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
-    </row>
-    <row r="19" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="13" t="s">
+      <c r="B18" s="16"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="16"/>
+    </row>
+    <row r="19" spans="1:18" ht="20.100000000000001" customHeight="1">
+      <c r="A19" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="B19" s="13" t="s">
+      <c r="B19" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="C19" s="13" t="s">
+      <c r="C19" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="D19" s="13" t="s">
+      <c r="D19" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="E19" s="13" t="s">
+      <c r="E19" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="F19" s="13" t="s">
+      <c r="F19" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="G19" s="13" t="s">
+      <c r="G19" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="H19" s="14" t="s">
+      <c r="H19" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="I19" s="16"/>
+      <c r="I19" s="11"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
@@ -2401,32 +2439,32 @@
       <c r="Q19" s="1"/>
       <c r="R19" s="1"/>
     </row>
-    <row r="20" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="13" t="s">
+    <row r="20" spans="1:18" ht="20.100000000000001" customHeight="1">
+      <c r="A20" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="B20" s="13" t="s">
+      <c r="B20" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="C20" s="13" t="s">
+      <c r="C20" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="D20" s="13" t="s">
+      <c r="D20" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="E20" s="13" t="s">
+      <c r="E20" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="F20" s="13" t="s">
+      <c r="F20" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="G20" s="13" t="s">
+      <c r="G20" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="H20" s="14" t="s">
+      <c r="H20" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="I20" s="16"/>
+      <c r="I20" s="11"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
@@ -2437,32 +2475,32 @@
       <c r="Q20" s="1"/>
       <c r="R20" s="1"/>
     </row>
-    <row r="21" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="13" t="s">
+    <row r="21" spans="1:18" ht="20.100000000000001" customHeight="1">
+      <c r="A21" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="B21" s="13" t="s">
+      <c r="B21" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="C21" s="13" t="s">
+      <c r="C21" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="D21" s="13" t="s">
+      <c r="D21" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="E21" s="13" t="s">
+      <c r="E21" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="F21" s="13" t="s">
+      <c r="F21" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="G21" s="13" t="s">
+      <c r="G21" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="H21" s="14" t="s">
+      <c r="H21" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="I21" s="16"/>
+      <c r="I21" s="11"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
@@ -2473,45 +2511,45 @@
       <c r="Q21" s="1"/>
       <c r="R21" s="1"/>
     </row>
-    <row r="22" spans="1:18" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="13" t="s">
+    <row r="22" spans="1:18" s="21" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A22" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="B22" s="13" t="s">
+      <c r="B22" s="18" t="s">
         <v>126</v>
       </c>
-      <c r="C22" s="13" t="s">
+      <c r="C22" s="18" t="s">
         <v>130</v>
       </c>
-      <c r="D22" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="E22" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="F22" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="G22" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="H22" s="14" t="s">
-        <v>149</v>
-      </c>
-      <c r="I22" s="16" t="s">
+      <c r="D22" s="18" t="s">
+        <v>150</v>
+      </c>
+      <c r="E22" s="18" t="s">
+        <v>151</v>
+      </c>
+      <c r="F22" s="18" t="s">
+        <v>152</v>
+      </c>
+      <c r="G22" s="18" t="s">
+        <v>153</v>
+      </c>
+      <c r="H22" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="I22" s="20" t="s">
         <v>102</v>
       </c>
-      <c r="J22" s="15"/>
-      <c r="K22" s="15"/>
-      <c r="L22" s="15"/>
-      <c r="M22" s="15"/>
-      <c r="N22" s="15"/>
-      <c r="O22" s="15"/>
-      <c r="P22" s="15"/>
-      <c r="Q22" s="15"/>
-      <c r="R22" s="15"/>
-    </row>
-    <row r="23" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J22" s="19"/>
+      <c r="K22" s="19"/>
+      <c r="L22" s="19"/>
+      <c r="M22" s="19"/>
+      <c r="N22" s="19"/>
+      <c r="O22" s="19"/>
+      <c r="P22" s="19"/>
+      <c r="Q22" s="19"/>
+      <c r="R22" s="19"/>
+    </row>
+    <row r="23" spans="1:18" ht="20.100000000000001" customHeight="1">
       <c r="A23" s="1" t="s">
         <v>36</v>
       </c>
@@ -2547,7 +2585,7 @@
       <c r="Q23" s="1"/>
       <c r="R23" s="1"/>
     </row>
-    <row r="24" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:18" ht="20.100000000000001" customHeight="1">
       <c r="A24" s="1" t="s">
         <v>37</v>
       </c>
@@ -2583,7 +2621,7 @@
       <c r="Q24" s="1"/>
       <c r="R24" s="1"/>
     </row>
-    <row r="25" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:18" ht="20.100000000000001" customHeight="1">
       <c r="A25" s="1" t="s">
         <v>38</v>
       </c>
@@ -2619,7 +2657,7 @@
       <c r="Q25" s="1"/>
       <c r="R25" s="1"/>
     </row>
-    <row r="26" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:18" ht="20.100000000000001" customHeight="1">
       <c r="A26" s="1" t="s">
         <v>39</v>
       </c>
@@ -2657,7 +2695,7 @@
       <c r="Q26" s="1"/>
       <c r="R26" s="1"/>
     </row>
-    <row r="27" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:18" ht="20.100000000000001" customHeight="1">
       <c r="A27" s="1" t="s">
         <v>40</v>
       </c>
@@ -2695,7 +2733,7 @@
       <c r="Q27" s="1"/>
       <c r="R27" s="1"/>
     </row>
-    <row r="28" spans="1:18" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:18" ht="20.25" customHeight="1">
       <c r="A28" s="1" t="s">
         <v>42</v>
       </c>
@@ -2733,7 +2771,7 @@
       <c r="Q28" s="1"/>
       <c r="R28" s="1"/>
     </row>
-    <row r="29" spans="1:18" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:18" ht="20.25" customHeight="1">
       <c r="A29" s="1" t="s">
         <v>43</v>
       </c>
@@ -2771,57 +2809,57 @@
       <c r="Q29" s="1"/>
       <c r="R29" s="1"/>
     </row>
-    <row r="30" spans="1:18" s="17" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="13" t="s">
+    <row r="30" spans="1:18" s="12" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A30" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="B30" s="14" t="s">
+      <c r="B30" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="C30" s="14" t="s">
+      <c r="C30" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="D30" s="14" t="s">
+      <c r="D30" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="E30" s="14" t="s">
+      <c r="E30" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="F30" s="14" t="s">
+      <c r="F30" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="G30" s="14" t="s">
+      <c r="G30" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="H30" s="14" t="s">
-        <v>150</v>
-      </c>
-      <c r="I30" s="16" t="s">
+      <c r="H30" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="I30" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="J30" s="15"/>
-      <c r="K30" s="15"/>
-      <c r="L30" s="15"/>
-      <c r="M30" s="15"/>
-      <c r="N30" s="15"/>
-      <c r="O30" s="15"/>
-      <c r="P30" s="15"/>
-      <c r="Q30" s="15"/>
-      <c r="R30" s="15"/>
-    </row>
-    <row r="31" spans="1:18" s="2" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="11" t="s">
+      <c r="J30" s="10"/>
+      <c r="K30" s="10"/>
+      <c r="L30" s="10"/>
+      <c r="M30" s="10"/>
+      <c r="N30" s="10"/>
+      <c r="O30" s="10"/>
+      <c r="P30" s="10"/>
+      <c r="Q30" s="10"/>
+      <c r="R30" s="10"/>
+    </row>
+    <row r="31" spans="1:18" s="2" customFormat="1" ht="26.25" customHeight="1">
+      <c r="A31" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="B31" s="11"/>
-      <c r="C31" s="11"/>
-      <c r="D31" s="11"/>
-      <c r="E31" s="11"/>
-      <c r="F31" s="11"/>
-      <c r="G31" s="11"/>
-      <c r="H31" s="11"/>
-    </row>
-    <row r="32" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B31" s="16"/>
+      <c r="C31" s="16"/>
+      <c r="D31" s="16"/>
+      <c r="E31" s="16"/>
+      <c r="F31" s="16"/>
+      <c r="G31" s="16"/>
+      <c r="H31" s="16"/>
+    </row>
+    <row r="32" spans="1:18" ht="20.100000000000001" customHeight="1">
       <c r="A32" s="1" t="s">
         <v>73</v>
       </c>
@@ -2846,7 +2884,7 @@
       <c r="H32" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="I32" s="12" t="s">
+      <c r="I32" s="17" t="s">
         <v>93</v>
       </c>
       <c r="J32" s="1"/>
@@ -2859,7 +2897,7 @@
       <c r="Q32" s="1"/>
       <c r="R32" s="1"/>
     </row>
-    <row r="33" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:18" ht="20.100000000000001" customHeight="1">
       <c r="A33" s="1" t="s">
         <v>104</v>
       </c>
@@ -2884,7 +2922,7 @@
       <c r="H33" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="I33" s="12"/>
+      <c r="I33" s="17"/>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
@@ -2895,7 +2933,7 @@
       <c r="Q33" s="1"/>
       <c r="R33" s="1"/>
     </row>
-    <row r="34" spans="1:18" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:18" ht="20.25" customHeight="1">
       <c r="A34" s="1" t="s">
         <v>74</v>
       </c>
@@ -2920,7 +2958,7 @@
       <c r="H34" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="I34" s="12"/>
+      <c r="I34" s="17"/>
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
@@ -2931,7 +2969,7 @@
       <c r="Q34" s="1"/>
       <c r="R34" s="1"/>
     </row>
-    <row r="35" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:18" ht="14.25" customHeight="1">
       <c r="A35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -2950,25 +2988,25 @@
       <c r="Q35" s="1"/>
       <c r="R35" s="1"/>
     </row>
-    <row r="36" spans="1:18" ht="288.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="10" t="s">
+    <row r="36" spans="1:18" ht="288.75" customHeight="1">
+      <c r="A36" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="B36" s="10"/>
-      <c r="C36" s="10"/>
-      <c r="D36" s="10"/>
-      <c r="E36" s="10"/>
-      <c r="F36" s="10"/>
-      <c r="G36" s="10"/>
-      <c r="H36" s="10"/>
-      <c r="I36" s="10"/>
-    </row>
-    <row r="37" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="38" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="39" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="40" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="41" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="42" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
+      <c r="B36" s="15"/>
+      <c r="C36" s="15"/>
+      <c r="D36" s="15"/>
+      <c r="E36" s="15"/>
+      <c r="F36" s="15"/>
+      <c r="G36" s="15"/>
+      <c r="H36" s="15"/>
+      <c r="I36" s="15"/>
+    </row>
+    <row r="37" spans="1:18" ht="20.100000000000001" customHeight="1"/>
+    <row r="38" spans="1:18" ht="20.100000000000001" customHeight="1"/>
+    <row r="39" spans="1:18" ht="20.100000000000001" customHeight="1"/>
+    <row r="40" spans="1:18" ht="15" customHeight="1"/>
+    <row r="41" spans="1:18" ht="15" customHeight="1"/>
+    <row r="42" spans="1:18" ht="15" customHeight="1"/>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="B1:H1"/>
